--- a/data/trans_orig/P60-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P60-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA80760-F9CF-4554-8E05-C0673ABCC85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF59DC5F-4D88-4F34-9340-44803F698C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1B9CADA-6C99-494A-A83D-516430AE998B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6184A24-4DC4-47AB-B9A7-B9B3BCF9EDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="470">
   <si>
     <t>Población según el nivel de estudios más alto finalizado en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -613,835 +613,841 @@
     <t>63,91%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
   </si>
   <si>
     <t>58,88%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado en 2015 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>8,31%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>6,24%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>45,52%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>43,58%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>6,97%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
+    <t>7,5%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>1,36%</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157BA6B1-8CB1-4FEC-9231-88A46B4D3F88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0E9A2D-F646-4834-A61F-D2C67CD4EF1B}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4032,7 +4038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163C51BD-CCC1-41BE-A119-A4E2DDC53CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB64FF36-8E87-41AE-B394-BAAF6D8B2103}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4567,10 +4573,10 @@
         <v>208</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -4579,13 +4585,13 @@
         <v>104939</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -4594,13 +4600,13 @@
         <v>147357</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4680,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4725,7 +4731,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4776,7 +4782,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4821,13 +4827,13 @@
         <v>249873</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4836,13 +4842,13 @@
         <v>197408</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -4851,13 +4857,13 @@
         <v>447281</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4878,13 @@
         <v>199135</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H18" s="7">
         <v>156</v>
@@ -4887,13 +4893,13 @@
         <v>165785</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>345</v>
@@ -4905,10 +4911,10 @@
         <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4929,13 @@
         <v>1514949</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>1299</v>
@@ -4938,13 +4944,13 @@
         <v>1394610</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>2726</v>
@@ -4953,13 +4959,13 @@
         <v>2909559</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,7 +4986,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5031,7 +5037,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5082,7 +5088,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5186,37 +5192,37 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5237,13 @@
         <v>237727</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -5246,13 +5252,13 @@
         <v>200869</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>385</v>
@@ -5261,13 +5267,13 @@
         <v>438595</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5288,13 @@
         <v>243454</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>235</v>
@@ -5297,13 +5303,13 @@
         <v>257762</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M26" s="7">
         <v>465</v>
@@ -5312,13 +5318,13 @@
         <v>501217</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,37 +5345,37 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,37 +5396,37 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,37 +5447,37 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,37 +5498,37 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,37 +5549,37 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,37 +5600,37 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5734,7 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,10 +5749,10 @@
         <v>237727</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>266</v>
@@ -5764,7 +5770,7 @@
         <v>268</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="M35" s="7">
         <v>385</v>
@@ -5776,10 +5782,10 @@
         <v>55</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5806,7 @@
         <v>272</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="H36" s="7">
         <v>235</v>
@@ -5809,13 +5815,13 @@
         <v>257762</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="M36" s="7">
         <v>465</v>
@@ -5824,13 +5830,13 @@
         <v>501217</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5851,13 @@
         <v>249873</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H37" s="7">
         <v>180</v>
@@ -5860,13 +5866,13 @@
         <v>197408</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M37" s="7">
         <v>420</v>
@@ -5875,13 +5881,13 @@
         <v>447281</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5902,13 @@
         <v>199135</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="H38" s="7">
         <v>156</v>
@@ -5911,13 +5917,13 @@
         <v>165785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M38" s="7">
         <v>345</v>
@@ -5926,13 +5932,13 @@
         <v>364920</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5953,13 @@
         <v>1514949</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H39" s="7">
         <v>1299</v>
@@ -5962,13 +5968,13 @@
         <v>1394610</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M39" s="7">
         <v>2726</v>
@@ -5977,13 +5983,13 @@
         <v>2909559</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6004,13 @@
         <v>622864</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H40" s="7">
         <v>685</v>
@@ -6013,13 +6019,13 @@
         <v>738774</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M40" s="7">
         <v>1263</v>
@@ -6028,13 +6034,13 @@
         <v>1361638</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6055,13 @@
         <v>309362</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H41" s="7">
         <v>463</v>
@@ -6064,13 +6070,13 @@
         <v>494084</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="7">
         <v>756</v>
@@ -6079,13 +6085,13 @@
         <v>803445</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6106,13 @@
         <v>42418</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="H42" s="7">
         <v>99</v>
@@ -6115,13 +6121,13 @@
         <v>104939</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M42" s="7">
         <v>136</v>
@@ -6130,13 +6136,13 @@
         <v>147356</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF5C224-C21F-4FA6-A983-1C87AAEE11FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CB65C3-A417-418D-A986-80A6E01F19BF}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6228,7 +6234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6335,13 +6341,13 @@
         <v>1265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6356,7 +6362,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6365,13 +6371,13 @@
         <v>1265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6398,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6407,7 +6413,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6443,7 +6449,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6458,7 +6464,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6494,7 +6500,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6509,7 +6515,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6545,7 +6551,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6560,7 +6566,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6596,7 +6602,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6611,7 +6617,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6641,13 +6647,13 @@
         <v>520950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -6656,13 +6662,13 @@
         <v>589995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>1059</v>
@@ -6671,13 +6677,13 @@
         <v>1110945</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6698,13 @@
         <v>209475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>307</v>
@@ -6707,13 +6713,13 @@
         <v>352632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>524</v>
@@ -6722,13 +6728,13 @@
         <v>562107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,10 +6752,10 @@
         <v>180</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -6758,13 +6764,13 @@
         <v>52033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -6773,13 +6779,13 @@
         <v>74690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,7 +6859,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6868,7 +6874,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6883,7 +6889,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,7 +6910,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6919,7 +6925,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6934,7 +6940,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,7 +6961,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6970,7 +6976,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6985,7 +6991,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,13 +7006,13 @@
         <v>327348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -7015,13 +7021,13 @@
         <v>273888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>570</v>
@@ -7030,13 +7036,13 @@
         <v>601236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7057,13 @@
         <v>211552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -7066,13 +7072,13 @@
         <v>175232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>231</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -7081,13 +7087,13 @@
         <v>386784</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7108,13 @@
         <v>1537485</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>1473</v>
@@ -7117,13 +7123,13 @@
         <v>1539180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>2925</v>
@@ -7132,13 +7138,13 @@
         <v>3076666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7165,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7174,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7189,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,7 +7216,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7225,7 +7231,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7240,7 +7246,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7267,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7276,7 +7282,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7291,7 +7297,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7371,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7395,7 +7401,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,13 +7416,13 @@
         <v>326024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H25" s="7">
         <v>276</v>
@@ -7425,13 +7431,13 @@
         <v>287111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M25" s="7">
         <v>574</v>
@@ -7440,13 +7446,13 @@
         <v>613135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7467,13 @@
         <v>220862</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -7476,13 +7482,13 @@
         <v>262029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>453</v>
@@ -7491,13 +7497,13 @@
         <v>482891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,7 +7524,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7548,7 +7554,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,7 +7575,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7599,7 +7605,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,7 +7626,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7650,7 +7656,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,7 +7677,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7701,7 +7707,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,7 +7728,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7752,7 +7758,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,7 +7779,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7803,7 +7809,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7877,13 @@
         <v>1265</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7901,13 +7907,13 @@
         <v>1265</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,13 +7928,13 @@
         <v>326024</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H35" s="7">
         <v>276</v>
@@ -7937,13 +7943,13 @@
         <v>287112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>408</v>
+        <v>277</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M35" s="7">
         <v>574</v>
@@ -7952,13 +7958,13 @@
         <v>613136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,10 +7982,10 @@
         <v>131</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="H36" s="7">
         <v>250</v>
@@ -7988,13 +7994,13 @@
         <v>262029</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>414</v>
+        <v>131</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M36" s="7">
         <v>453</v>
@@ -8003,13 +8009,13 @@
         <v>482891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +8030,13 @@
         <v>327348</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>418</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H37" s="7">
         <v>265</v>
@@ -8039,13 +8045,13 @@
         <v>273888</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>570</v>
@@ -8054,13 +8060,13 @@
         <v>601235</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8081,13 @@
         <v>211552</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H38" s="7">
         <v>170</v>
@@ -8090,13 +8096,13 @@
         <v>175232</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="M38" s="7">
         <v>365</v>
@@ -8105,13 +8111,13 @@
         <v>386784</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>150</v>
+        <v>435</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8132,13 @@
         <v>1537485</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H39" s="7">
         <v>1473</v>
@@ -8141,13 +8147,13 @@
         <v>1539180</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M39" s="7">
         <v>2925</v>
@@ -8156,13 +8162,13 @@
         <v>3076665</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8183,13 @@
         <v>520950</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H40" s="7">
         <v>538</v>
@@ -8192,13 +8198,13 @@
         <v>589995</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M40" s="7">
         <v>1059</v>
@@ -8207,13 +8213,13 @@
         <v>1110945</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8234,13 @@
         <v>209475</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H41" s="7">
         <v>307</v>
@@ -8243,13 +8249,13 @@
         <v>352632</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M41" s="7">
         <v>524</v>
@@ -8258,13 +8264,13 @@
         <v>562107</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8285,13 @@
         <v>22657</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -8294,13 +8300,13 @@
         <v>52033</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M42" s="7">
         <v>70</v>
@@ -8309,13 +8315,13 @@
         <v>74690</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P60-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P60-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF59DC5F-4D88-4F34-9340-44803F698C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE1D940-9DE6-4CCB-B503-6682D2B87607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6184A24-4DC4-47AB-B9A7-B9B3BCF9EDC6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D827C18-117D-461A-BF1E-4BDF72B95899}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="472">
   <si>
     <t>Población según el nivel de estudios más alto finalizado en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -88,16 +88,16 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado superior</t>
@@ -136,28 +136,28 @@
     <t>63,36%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>55,4%</t>
   </si>
   <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>No ha estudiado pero sabe leer y escribir</t>
@@ -166,28 +166,28 @@
     <t>31,15%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>No sabe leer o escribir</t>
@@ -196,1258 +196,1264 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Población según el nivel de estudios más alto finalizado en 2016 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>77,04%</t>
   </si>
   <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Población según el nivel de estudios más alto finalizado en 2015 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>1,35%</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0E9A2D-F646-4834-A61F-D2C67CD4EF1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1465E0-E059-4362-8F97-B94437A3656E}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2645,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>280520</v>
+        <v>280521</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
@@ -2951,7 +2957,7 @@
         <v>1649</v>
       </c>
       <c r="D23" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>60</v>
@@ -3130,7 +3136,7 @@
         <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>463</v>
@@ -3139,13 +3145,13 @@
         <v>470716</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>16728</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3534,13 +3540,13 @@
         <v>13481</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -3549,13 +3555,13 @@
         <v>30209</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3576,13 @@
         <v>331717</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H35" s="7">
         <v>209</v>
@@ -3585,13 +3591,13 @@
         <v>225388</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M35" s="7">
         <v>516</v>
@@ -3600,13 +3606,13 @@
         <v>557104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3627,13 @@
         <v>219691</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H36" s="7">
         <v>243</v>
@@ -3636,13 +3642,13 @@
         <v>251024</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M36" s="7">
         <v>463</v>
@@ -3651,13 +3657,13 @@
         <v>470715</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3678,13 @@
         <v>280521</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H37" s="7">
         <v>194</v>
@@ -3687,13 +3693,13 @@
         <v>195844</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7">
         <v>470</v>
@@ -3702,13 +3708,13 @@
         <v>476365</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3729,13 @@
         <v>143512</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H38" s="7">
         <v>160</v>
@@ -3738,13 +3744,13 @@
         <v>160788</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M38" s="7">
         <v>299</v>
@@ -3753,13 +3759,13 @@
         <v>304300</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3780,13 @@
         <v>1269380</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H39" s="7">
         <v>1200</v>
@@ -3789,13 +3795,13 @@
         <v>1231041</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M39" s="7">
         <v>2434</v>
@@ -3804,13 +3810,13 @@
         <v>2500421</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3831,13 @@
         <v>653676</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H40" s="7">
         <v>720</v>
@@ -3840,13 +3846,13 @@
         <v>728621</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M40" s="7">
         <v>1373</v>
@@ -3855,13 +3861,13 @@
         <v>1382297</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3882,13 @@
         <v>321377</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H41" s="7">
         <v>459</v>
@@ -3891,13 +3897,13 @@
         <v>471723</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M41" s="7">
         <v>788</v>
@@ -3906,13 +3912,13 @@
         <v>793100</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3933,13 @@
         <v>39943</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H42" s="7">
         <v>96</v>
@@ -3942,13 +3948,13 @@
         <v>101287</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M42" s="7">
         <v>135</v>
@@ -3957,13 +3963,13 @@
         <v>141230</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3981,7 @@
         <v>3214</v>
       </c>
       <c r="D43" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>60</v>
@@ -4005,7 +4011,7 @@
         <v>6511</v>
       </c>
       <c r="N43" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>60</v>
@@ -4019,7 +4025,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4038,7 +4044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB64FF36-8E87-41AE-B394-BAAF6D8B2103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F166B0-0334-4830-A517-70A3518A7974}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4055,7 +4061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4168,7 +4174,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4198,7 +4204,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4225,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4249,7 +4255,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4276,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4300,7 +4306,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4327,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4351,7 +4357,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4378,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4402,7 +4408,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4429,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4453,7 +4459,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4474,13 @@
         <v>622864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>685</v>
@@ -4483,13 +4489,13 @@
         <v>738774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>1263</v>
@@ -4498,13 +4504,13 @@
         <v>1361638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4525,13 @@
         <v>309362</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>463</v>
@@ -4534,13 +4540,13 @@
         <v>494084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>756</v>
@@ -4549,13 +4555,13 @@
         <v>803446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4576,13 @@
         <v>42418</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>99</v>
@@ -4585,13 +4591,13 @@
         <v>104939</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -4600,13 +4606,13 @@
         <v>147357</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,7 +4686,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4731,7 +4737,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4782,7 +4788,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4827,13 +4833,13 @@
         <v>249873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4842,13 +4848,13 @@
         <v>197408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -4857,13 +4863,13 @@
         <v>447281</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4884,13 @@
         <v>199135</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H18" s="7">
         <v>156</v>
@@ -4893,13 +4899,13 @@
         <v>165785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="M18" s="7">
         <v>345</v>
@@ -4908,13 +4914,13 @@
         <v>364920</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4935,13 @@
         <v>1514949</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>1299</v>
@@ -4944,13 +4950,13 @@
         <v>1394610</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>2726</v>
@@ -4959,13 +4965,13 @@
         <v>2909559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4992,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5037,7 +5043,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5088,7 +5094,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5192,7 +5198,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5207,7 +5213,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5222,7 +5228,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5243,13 @@
         <v>237727</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -5252,13 +5258,13 @@
         <v>200869</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>385</v>
@@ -5267,13 +5273,13 @@
         <v>438595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5294,13 @@
         <v>243454</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>235</v>
@@ -5303,13 +5309,13 @@
         <v>257762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>465</v>
@@ -5318,13 +5324,13 @@
         <v>501217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5351,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5360,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5375,7 +5381,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5402,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5411,7 +5417,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5426,7 +5432,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,7 +5453,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5462,7 +5468,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5477,7 +5483,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5513,7 +5519,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5528,7 +5534,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,7 +5555,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5564,7 +5570,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5579,7 +5585,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,7 +5606,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5615,7 +5621,7 @@
         <v>22</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5630,7 +5636,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,7 +5740,7 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5755,13 @@
         <v>237727</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H35" s="7">
         <v>177</v>
@@ -5764,13 +5770,13 @@
         <v>200869</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M35" s="7">
         <v>385</v>
@@ -5779,13 +5785,13 @@
         <v>438595</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5806,13 @@
         <v>243455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H36" s="7">
         <v>235</v>
@@ -5815,13 +5821,13 @@
         <v>257762</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M36" s="7">
         <v>465</v>
@@ -5830,13 +5836,13 @@
         <v>501217</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5857,13 @@
         <v>249873</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H37" s="7">
         <v>180</v>
@@ -5866,13 +5872,13 @@
         <v>197408</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M37" s="7">
         <v>420</v>
@@ -5881,13 +5887,13 @@
         <v>447281</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5908,13 @@
         <v>199135</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="H38" s="7">
         <v>156</v>
@@ -5917,13 +5923,13 @@
         <v>165785</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7">
         <v>345</v>
@@ -5932,13 +5938,13 @@
         <v>364920</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5959,13 @@
         <v>1514949</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="H39" s="7">
         <v>1299</v>
@@ -5968,13 +5974,13 @@
         <v>1394610</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M39" s="7">
         <v>2726</v>
@@ -5983,13 +5989,13 @@
         <v>2909559</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6010,13 @@
         <v>622864</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H40" s="7">
         <v>685</v>
@@ -6019,13 +6025,13 @@
         <v>738774</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M40" s="7">
         <v>1263</v>
@@ -6034,13 +6040,13 @@
         <v>1361638</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6061,13 @@
         <v>309362</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="H41" s="7">
         <v>463</v>
@@ -6070,13 +6076,13 @@
         <v>494084</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M41" s="7">
         <v>756</v>
@@ -6085,13 +6091,13 @@
         <v>803445</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6112,13 @@
         <v>42418</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H42" s="7">
         <v>99</v>
@@ -6121,13 +6127,13 @@
         <v>104939</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M42" s="7">
         <v>136</v>
@@ -6136,13 +6142,13 @@
         <v>147356</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6204,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6217,7 +6223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CB65C3-A417-418D-A986-80A6E01F19BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C614F7-C751-461C-8C32-DF3DA2283E4B}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6234,7 +6240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6341,13 +6347,13 @@
         <v>1265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6362,7 +6368,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6371,13 +6377,13 @@
         <v>1265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6413,7 +6419,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6449,7 +6455,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6464,7 +6470,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6500,7 +6506,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6515,7 +6521,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6551,7 +6557,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6566,7 +6572,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6602,7 +6608,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6617,7 +6623,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6647,13 +6653,13 @@
         <v>520950</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -6662,13 +6668,13 @@
         <v>589995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>1059</v>
@@ -6677,13 +6683,13 @@
         <v>1110945</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6704,13 @@
         <v>209475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>307</v>
@@ -6713,13 +6719,13 @@
         <v>352632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>524</v>
@@ -6728,13 +6734,13 @@
         <v>562107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6755,13 @@
         <v>22657</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -6764,13 +6770,13 @@
         <v>52033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -6779,13 +6785,13 @@
         <v>74690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6865,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6874,7 +6880,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6889,7 +6895,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,7 +6916,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6925,7 +6931,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6940,7 +6946,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,7 +6967,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6976,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6991,7 +6997,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7012,13 @@
         <v>327348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -7021,13 +7027,13 @@
         <v>273888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>570</v>
@@ -7036,13 +7042,13 @@
         <v>601236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7063,13 @@
         <v>211552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -7072,13 +7078,13 @@
         <v>175232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>231</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -7087,13 +7093,13 @@
         <v>386784</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7114,13 @@
         <v>1537485</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>1473</v>
@@ -7123,13 +7129,13 @@
         <v>1539180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>2925</v>
@@ -7138,13 +7144,13 @@
         <v>3076666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,7 +7171,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7180,7 +7186,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7195,7 +7201,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,7 +7222,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7231,7 +7237,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -7246,7 +7252,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,7 +7273,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7282,7 +7288,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7297,7 +7303,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,7 +7377,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7401,7 +7407,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7422,13 @@
         <v>326024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>276</v>
@@ -7431,13 +7437,13 @@
         <v>287111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>574</v>
@@ -7446,13 +7452,13 @@
         <v>613135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7473,13 @@
         <v>220862</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -7482,13 +7488,13 @@
         <v>262029</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M26" s="7">
         <v>453</v>
@@ -7497,13 +7503,13 @@
         <v>482891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,7 +7530,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7554,7 +7560,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,7 +7581,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7605,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,7 +7632,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7656,7 +7662,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,7 +7683,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7707,7 +7713,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,7 +7734,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7758,7 +7764,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7785,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7809,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7883,13 @@
         <v>1265</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7907,13 +7913,13 @@
         <v>1265</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +7934,13 @@
         <v>326024</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H35" s="7">
         <v>276</v>
@@ -7943,13 +7949,13 @@
         <v>287112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>277</v>
+        <v>418</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M35" s="7">
         <v>574</v>
@@ -7958,13 +7964,13 @@
         <v>613136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,13 +7985,13 @@
         <v>220862</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>417</v>
+        <v>133</v>
       </c>
       <c r="H36" s="7">
         <v>250</v>
@@ -7994,13 +8000,13 @@
         <v>262029</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="M36" s="7">
         <v>453</v>
@@ -8009,13 +8015,13 @@
         <v>482891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>421</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,13 +8036,13 @@
         <v>327348</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>427</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H37" s="7">
         <v>265</v>
@@ -8045,13 +8051,13 @@
         <v>273888</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="M37" s="7">
         <v>570</v>
@@ -8060,13 +8066,13 @@
         <v>601235</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8081,13 +8087,13 @@
         <v>211552</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>430</v>
+        <v>152</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="H38" s="7">
         <v>170</v>
@@ -8096,13 +8102,13 @@
         <v>175232</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>287</v>
+        <v>438</v>
       </c>
       <c r="M38" s="7">
         <v>365</v>
@@ -8111,13 +8117,13 @@
         <v>386784</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,13 +8138,13 @@
         <v>1537485</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H39" s="7">
         <v>1473</v>
@@ -8147,13 +8153,13 @@
         <v>1539180</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M39" s="7">
         <v>2925</v>
@@ -8162,13 +8168,13 @@
         <v>3076665</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8189,13 @@
         <v>520950</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H40" s="7">
         <v>538</v>
@@ -8198,13 +8204,13 @@
         <v>589995</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M40" s="7">
         <v>1059</v>
@@ -8213,13 +8219,13 @@
         <v>1110945</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8240,13 @@
         <v>209475</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H41" s="7">
         <v>307</v>
@@ -8249,13 +8255,13 @@
         <v>352632</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M41" s="7">
         <v>524</v>
@@ -8264,13 +8270,13 @@
         <v>562107</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8291,13 @@
         <v>22657</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>463</v>
+        <v>119</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -8300,13 +8306,13 @@
         <v>52033</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M42" s="7">
         <v>70</v>
@@ -8318,10 +8324,10 @@
         <v>468</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8383,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
